--- a/mathTransformed/HMPSTT_(2019-11-11)_54_4.xlsx
+++ b/mathTransformed/HMPSTT_(2019-11-11)_54_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -483,6 +488,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>G J C Sringeri</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>Chikmagalore</t>
         </is>
       </c>
@@ -508,7 +518,8 @@
           <t>ANITA V KANASHETTY</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>Mahadevi Girls High School Kalaburgi</t>
         </is>
@@ -534,6 +545,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>Govt. High School BemalkhedaHumnabad</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -561,6 +577,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>G H S Kundagol</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -588,6 +609,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>R L S High School</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -615,6 +641,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>G H S (RMSA) ParwatiBadami</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -639,6 +670,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>B T V P High School HallichedHumanbad</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -666,6 +702,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>Janatha Rural High School Lakshmipura</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Ramanagara</t>
         </is>
       </c>
@@ -693,6 +734,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>S J F S High SchoolSanshiKundgol</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -720,6 +766,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>S V H S RamanathpuraArkalgudu</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -747,6 +798,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>Govt. Boys H S Humnabad</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -774,6 +830,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>S M H S KudlurTarikere</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Chikmagaluru</t>
         </is>
       </c>
@@ -799,7 +860,8 @@
           <t>GURURAJACHARYA M PUJARI</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
         <is>
           <t>N V Boy’s High School Kalaburagi</t>
         </is>
@@ -828,6 +890,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>G U H S AmingadHungund</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Bagalkote</t>
         </is>
       </c>
@@ -855,6 +922,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>G H S HirehonnihalliKalaghatagi</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -882,6 +954,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>G J C (H S) AvinahalliSagar</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -909,6 +986,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>G H S Kuruvangi</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>Chikkamagaluru</t>
         </is>
       </c>
@@ -933,7 +1015,8 @@
           <t>KAVITA C SHEELAVANT</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
         <is>
           <t>KAVITA C SHEELAVAN</t>
         </is>
@@ -951,6 +1034,11 @@
         </is>
       </c>
       <c r="F21" t="inlineStr">
+        <is>
+          <t>S R V P G H S KamadolliKundgol</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>Dharwad</t>
         </is>
@@ -979,6 +1067,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>G H S HangarahalliHolenarsipura</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1006,6 +1099,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>C K S Girls High SchoolK R Puram</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1033,6 +1131,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>Adarsha Vidyalaya (RMSA) LokapurLaxanattiMudhol</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1060,6 +1163,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>Govt. High School (Boys) NirnaHumnabad</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1087,6 +1195,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>G J C (H S) ThatanahalliHolenarasipura</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1114,6 +1227,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>Shreeveerbhadreshwar High School HalagalMudhol</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1141,6 +1259,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>St. Joseph’s High School</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1168,6 +1291,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>Sri A R High School KiggaSringeri</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>Chikmagalore</t>
         </is>
       </c>
@@ -1195,6 +1323,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>S J G P U C Newtown Bhadravathi</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -1222,6 +1355,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>Y V M High School MorabNavalagund</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>Dharawad</t>
         </is>
       </c>
@@ -1249,6 +1387,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>G H S DubalagundiHumnabad</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1276,6 +1419,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>G H S TarlaghattaKundgol</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -1303,6 +1451,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>N V Kannya High School</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>Kalaburgi</t>
         </is>
       </c>
@@ -1330,6 +1483,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>G H S Bannikuppe RamanagaraKanakapura</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>Ramanagara</t>
         </is>
       </c>
@@ -1354,6 +1512,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>R S H S Mailoor</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1381,6 +1544,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>G J C (High School) HallimysoreHolenarasipura</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1408,6 +1576,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>Malenadu High School</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>Soraba</t>
         </is>
       </c>
@@ -1423,7 +1596,8 @@
           <t>Shivamogga.</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
         <is>
           <t>Shivamogga</t>
         </is>
@@ -1452,6 +1626,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>Somaiya Vinay MandirHigh School SameerwadiMudhol</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1479,6 +1658,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>Dayanand Hindi Vidyalay</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>Kalaburgi</t>
         </is>
       </c>
@@ -1503,6 +1687,11 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>G H S S Madapura Kadur</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>Chickmagalore</t>
         </is>
       </c>
@@ -1530,6 +1719,11 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>G H S Sangameshwarapete</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>Chikkamagalauru</t>
         </is>
       </c>
@@ -1557,6 +1751,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>Govt. Urdu High School TippunagaraChannapatana</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>Ramanagara</t>
         </is>
       </c>
@@ -1584,6 +1783,11 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>G H S KarkeshwaraN R Pura</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>Chikmagalore</t>
         </is>
       </c>
@@ -1611,6 +1815,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>Govt. H S MinajagiMuddebihal</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -1638,6 +1847,11 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>Sri Siddaganga Rural High SchoolDoddagangavadi</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>Ramanagara</t>
         </is>
       </c>
@@ -1665,6 +1879,11 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>G J C PaduvalahippeHolenarasipur</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1692,6 +1911,11 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>Govt. Junior College Girls</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1719,6 +1943,11 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>G H S BaradwadKundagol</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -1746,6 +1975,11 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>G H S MavanurHolenarasipur</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1773,6 +2007,11 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t>Girls High School RabkaviJamkhandi</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1797,6 +2036,11 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>Govt. High School AlaghattaBirur</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>Chickmagalur</t>
         </is>
       </c>
@@ -1824,6 +2068,11 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>Sheth Hanchaji Navalaji High School HudageriKundagola</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -1848,6 +2097,11 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
+          <t>Govt. High School Aurad(B)</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1872,6 +2126,11 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
+          <t>P D J High School</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -1896,6 +2155,11 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
+          <t>S R H S PallagatteJagalur</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -1919,6 +2183,11 @@
         </is>
       </c>
       <c r="F58" t="inlineStr">
+        <is>
+          <t>G H S LingapuraHonnali</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
         <is>
           <t>Davanagere</t>
         </is>

--- a/mathTransformed/HMPSTT_(2019-11-11)_54_4.xlsx
+++ b/mathTransformed/HMPSTT_(2019-11-11)_54_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,7 +518,6 @@
           <t>ANITA V KANASHETTY</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
           <t>Mahadevi Girls High School Kalaburgi</t>
@@ -860,7 +859,6 @@
           <t>GURURAJACHARYA M PUJARI</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
           <t>N V Boy’s High School Kalaburagi</t>
@@ -895,7 +893,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Bagalkote</t>
+          <t>Bagalkot</t>
         </is>
       </c>
     </row>
@@ -991,7 +989,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Chikkamagaluru</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1013,6 @@
           <t>KAVITA C SHEELAVANT</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
           <t>KAVITA C SHEELAVAN</t>
@@ -1360,7 +1357,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Dharawad</t>
+          <t>Dharwad</t>
         </is>
       </c>
     </row>
@@ -1456,7 +1453,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Kalaburgi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1593,6 @@
           <t>Shivamogga.</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
           <t>Shivamogga</t>
@@ -1663,7 +1659,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Kalaburgi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1820,7 +1816,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -2131,7 +2127,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -2160,7 +2156,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -2189,7 +2185,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>

--- a/mathTransformed/HMPSTT_(2019-11-11)_54_4.xlsx
+++ b/mathTransformed/HMPSTT_(2019-11-11)_54_4.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Chikmagalore</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -520,7 +520,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Mahadevi Girls High School Kalaburgi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -834,7 +834,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Chikmagaluru</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Chikmagalore</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -1325,7 +1325,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1578,7 +1578,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Soraba</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Shivamogga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Chickmagalore</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Chikkamagalauru</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Chikmagalore</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Chickmagalur</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
